--- a/strategy_wide/cluster_strategy_wide_4.xlsx
+++ b/strategy_wide/cluster_strategy_wide_4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hiroshimauniv-my.sharepoint.com/personal/m224659_hiroshima-u_ac_jp/Documents/Documents/relation_strategy/strategy_wide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_FFC65FC0A0A12DCA80160BFCF32B63DB6E940AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A42FC842-AB72-4911-A028-C8E3411D29D6}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_FFC65FC0A0A12DCA80160BFCF32B63DB6E940AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86A4DAB8-E970-46CB-9DAA-8CF2DB3D45CF}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,14 +318,14 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="99">
+  <dxfs count="15">
     <dxf>
       <font>
         <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -336,77 +336,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -436,7 +365,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
         </patternFill>
       </fill>
     </dxf>
@@ -463,16 +392,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color auto="1"/>
       </font>
       <fill>
@@ -483,21 +402,11 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -507,7 +416,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -527,7 +436,18 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFFFCCCC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -537,37 +457,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="3" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -578,736 +468,6 @@
       <fill>
         <patternFill>
           <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1621,7 +781,7 @@
   <dimension ref="A1:U50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4881,6 +4041,32 @@
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="D2:U50">
+    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="x_S_R">
+      <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="x_S_x">
+      <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="33" operator="containsText" text="F_S_x">
+      <formula>NOT(ISERROR(SEARCH("F_S_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="34" operator="containsText" text="x_x_x">
+      <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="35" operator="containsText" text="F_x_R">
+      <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="36" operator="containsText" text="F_x_x">
+      <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="37" operator="containsText" text="F_S_R">
+      <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="x_x_R">
+      <formula>NOT(ISERROR(SEARCH("x_x_R",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I2:I50">
     <cfRule type="dataBar" priority="3">
       <dataBar>
@@ -4921,29 +4107,6 @@
           <x14:id>{0AA3BA14-A528-4E54-9260-859191F557DD}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D2:U50">
-    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="x_S_x">
-      <formula>NOT(ISERROR(SEARCH("x_S_x",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="32" operator="containsText" text="F_S">
-      <formula>NOT(ISERROR(SEARCH("F_S",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="33" operator="containsText" text="x_x_x">
-      <formula>NOT(ISERROR(SEARCH("x_x_x",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="34" operator="containsText" text="F_x_R">
-      <formula>NOT(ISERROR(SEARCH("F_x_R",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="35" operator="containsText" text="F_x_x">
-      <formula>NOT(ISERROR(SEARCH("F_x_x",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" operator="containsText" text="x_S_R">
-      <formula>NOT(ISERROR(SEARCH("x_S_R",D2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="36" operator="containsText" text="F_S_R">
-      <formula>NOT(ISERROR(SEARCH("F_S_R",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
